--- a/REGULAR/ONT/PENANO, DARYL BAMBI B..xlsx
+++ b/REGULAR/ONT/PENANO, DARYL BAMBI B..xlsx
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="76">
   <si>
     <t>PERIOD</t>
   </si>
@@ -256,6 +256,12 @@
   </si>
   <si>
     <t>11/14-16/2023</t>
+  </si>
+  <si>
+    <t>2024</t>
+  </si>
+  <si>
+    <t>12/30/2023 - 1/1/2024</t>
   </si>
 </sst>
 </file>
@@ -1121,7 +1127,7 @@
         <xdr:cNvPr id="7" name="Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1164,7 +1170,7 @@
         <xdr:cNvPr id="5" name="TextBox 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1228,7 +1234,7 @@
         <xdr:cNvPr id="4" name="Arrow: Left 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1288,7 +1294,7 @@
         <xdr:cNvPr id="8" name="Oval 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1354,7 +1360,7 @@
         <xdr:cNvPr id="9" name="Arrow: Left-Right 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1417,7 +1423,7 @@
         <xdr:cNvPr id="10" name="TextBox 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1515,7 +1521,7 @@
         <xdr:cNvPr id="14" name="Straight Arrow Connector 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1574,7 +1580,7 @@
         <xdr:cNvPr id="19" name="TextBox 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1639,7 +1645,7 @@
         <xdr:cNvPr id="20" name="Picture 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1682,7 +1688,7 @@
         <xdr:cNvPr id="21" name="TextBox 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1757,7 +1763,7 @@
         <xdr:cNvPr id="22" name="TextBox 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1943,7 +1949,7 @@
         <xdr:cNvPr id="23" name="Oval 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2009,7 +2015,7 @@
         <xdr:cNvPr id="24" name="Straight Arrow Connector 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2067,7 +2073,7 @@
         <xdr:cNvPr id="26" name="Oval 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2133,7 +2139,7 @@
         <xdr:cNvPr id="27" name="Straight Arrow Connector 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2189,7 +2195,7 @@
         <xdr:cNvPr id="30" name="TextBox 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2264,7 +2270,7 @@
         <xdr:cNvPr id="31" name="Picture 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2307,7 +2313,7 @@
         <xdr:cNvPr id="32" name="Oval 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2373,7 +2379,7 @@
         <xdr:cNvPr id="33" name="Straight Arrow Connector 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2429,7 +2435,7 @@
         <xdr:cNvPr id="34" name="TextBox 33">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2527,7 +2533,7 @@
         <xdr:cNvPr id="2" name="Rectangle 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2590,7 +2596,7 @@
         <xdr:cNvPr id="3" name="Rectangle 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2656,7 +2662,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K135" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K136" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
   <tableColumns count="11">
     <tableColumn id="1" name="PERIOD" dataDxfId="20"/>
     <tableColumn id="2" name="PARTICULARS" dataDxfId="19"/>
@@ -3034,12 +3040,12 @@
   <sheetPr codeName="Sheet2">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:K135"/>
+  <dimension ref="A2:K136"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="3690" topLeftCell="A54" activePane="bottomLeft"/>
       <selection activeCell="A11" sqref="A11"/>
-      <selection pane="bottomLeft" activeCell="E61" sqref="E61"/>
+      <selection pane="bottomLeft" activeCell="K65" sqref="K65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3202,7 +3208,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>28.660999999999998</v>
+        <v>32.411000000000001</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -3212,7 +3218,7 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>40.25</v>
+        <v>41</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
@@ -4304,15 +4310,17 @@
       <c r="B61" s="20" t="s">
         <v>72</v>
       </c>
-      <c r="C61" s="13"/>
+      <c r="C61" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D61" s="39">
         <v>4</v>
       </c>
       <c r="E61" s="9"/>
       <c r="F61" s="20"/>
-      <c r="G61" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G61" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H61" s="39"/>
       <c r="I61" s="9"/>
@@ -4326,13 +4334,15 @@
         <v>45231</v>
       </c>
       <c r="B62" s="20"/>
-      <c r="C62" s="13"/>
+      <c r="C62" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D62" s="39"/>
       <c r="E62" s="9"/>
       <c r="F62" s="20"/>
-      <c r="G62" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G62" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H62" s="39"/>
       <c r="I62" s="9"/>
@@ -4344,13 +4354,15 @@
         <v>45261</v>
       </c>
       <c r="B63" s="20"/>
-      <c r="C63" s="13"/>
+      <c r="C63" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D63" s="39"/>
       <c r="E63" s="9"/>
       <c r="F63" s="20"/>
-      <c r="G63" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G63" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H63" s="39"/>
       <c r="I63" s="9"/>
@@ -4358,8 +4370,8 @@
       <c r="K63" s="20"/>
     </row>
     <row r="64" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A64" s="40">
-        <v>45292</v>
+      <c r="A64" s="48" t="s">
+        <v>74</v>
       </c>
       <c r="B64" s="20"/>
       <c r="C64" s="13"/>
@@ -4377,9 +4389,11 @@
     </row>
     <row r="65" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A65" s="40">
-        <v>45323</v>
-      </c>
-      <c r="B65" s="20"/>
+        <v>45292</v>
+      </c>
+      <c r="B65" s="20" t="s">
+        <v>48</v>
+      </c>
       <c r="C65" s="13"/>
       <c r="D65" s="39"/>
       <c r="E65" s="9"/>
@@ -4388,14 +4402,18 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H65" s="39"/>
+      <c r="H65" s="39">
+        <v>3</v>
+      </c>
       <c r="I65" s="9"/>
       <c r="J65" s="11"/>
-      <c r="K65" s="20"/>
+      <c r="K65" s="20" t="s">
+        <v>75</v>
+      </c>
     </row>
     <row r="66" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A66" s="40">
-        <v>45352</v>
+        <v>45323</v>
       </c>
       <c r="B66" s="20"/>
       <c r="C66" s="13"/>
@@ -4413,7 +4431,7 @@
     </row>
     <row r="67" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A67" s="40">
-        <v>45383</v>
+        <v>45352</v>
       </c>
       <c r="B67" s="20"/>
       <c r="C67" s="13"/>
@@ -4431,7 +4449,7 @@
     </row>
     <row r="68" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A68" s="40">
-        <v>45413</v>
+        <v>45383</v>
       </c>
       <c r="B68" s="20"/>
       <c r="C68" s="13"/>
@@ -4449,7 +4467,7 @@
     </row>
     <row r="69" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A69" s="40">
-        <v>45444</v>
+        <v>45413</v>
       </c>
       <c r="B69" s="20"/>
       <c r="C69" s="13"/>
@@ -4467,7 +4485,7 @@
     </row>
     <row r="70" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A70" s="40">
-        <v>45474</v>
+        <v>45444</v>
       </c>
       <c r="B70" s="20"/>
       <c r="C70" s="13"/>
@@ -4485,7 +4503,7 @@
     </row>
     <row r="71" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A71" s="40">
-        <v>45505</v>
+        <v>45474</v>
       </c>
       <c r="B71" s="20"/>
       <c r="C71" s="13"/>
@@ -4503,7 +4521,7 @@
     </row>
     <row r="72" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A72" s="40">
-        <v>45536</v>
+        <v>45505</v>
       </c>
       <c r="B72" s="20"/>
       <c r="C72" s="13"/>
@@ -4521,7 +4539,7 @@
     </row>
     <row r="73" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A73" s="40">
-        <v>45566</v>
+        <v>45536</v>
       </c>
       <c r="B73" s="20"/>
       <c r="C73" s="13"/>
@@ -4539,7 +4557,7 @@
     </row>
     <row r="74" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A74" s="40">
-        <v>45597</v>
+        <v>45566</v>
       </c>
       <c r="B74" s="20"/>
       <c r="C74" s="13"/>
@@ -4557,7 +4575,7 @@
     </row>
     <row r="75" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A75" s="40">
-        <v>45627</v>
+        <v>45597</v>
       </c>
       <c r="B75" s="20"/>
       <c r="C75" s="13"/>
@@ -4575,7 +4593,7 @@
     </row>
     <row r="76" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A76" s="40">
-        <v>45658</v>
+        <v>45627</v>
       </c>
       <c r="B76" s="20"/>
       <c r="C76" s="13"/>
@@ -4593,7 +4611,7 @@
     </row>
     <row r="77" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A77" s="40">
-        <v>45689</v>
+        <v>45658</v>
       </c>
       <c r="B77" s="20"/>
       <c r="C77" s="13"/>
@@ -4611,7 +4629,7 @@
     </row>
     <row r="78" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A78" s="40">
-        <v>45717</v>
+        <v>45689</v>
       </c>
       <c r="B78" s="20"/>
       <c r="C78" s="13"/>
@@ -4629,7 +4647,7 @@
     </row>
     <row r="79" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A79" s="40">
-        <v>45748</v>
+        <v>45717</v>
       </c>
       <c r="B79" s="20"/>
       <c r="C79" s="13"/>
@@ -4647,7 +4665,7 @@
     </row>
     <row r="80" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A80" s="40">
-        <v>45778</v>
+        <v>45748</v>
       </c>
       <c r="B80" s="20"/>
       <c r="C80" s="13"/>
@@ -4665,7 +4683,7 @@
     </row>
     <row r="81" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A81" s="40">
-        <v>45809</v>
+        <v>45778</v>
       </c>
       <c r="B81" s="20"/>
       <c r="C81" s="13"/>
@@ -4683,7 +4701,7 @@
     </row>
     <row r="82" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A82" s="40">
-        <v>45839</v>
+        <v>45809</v>
       </c>
       <c r="B82" s="20"/>
       <c r="C82" s="13"/>
@@ -4701,7 +4719,7 @@
     </row>
     <row r="83" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A83" s="40">
-        <v>45870</v>
+        <v>45839</v>
       </c>
       <c r="B83" s="20"/>
       <c r="C83" s="13"/>
@@ -4719,7 +4737,7 @@
     </row>
     <row r="84" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A84" s="40">
-        <v>45901</v>
+        <v>45870</v>
       </c>
       <c r="B84" s="20"/>
       <c r="C84" s="13"/>
@@ -4737,7 +4755,7 @@
     </row>
     <row r="85" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A85" s="40">
-        <v>45931</v>
+        <v>45901</v>
       </c>
       <c r="B85" s="20"/>
       <c r="C85" s="13"/>
@@ -4755,7 +4773,7 @@
     </row>
     <row r="86" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A86" s="40">
-        <v>45962</v>
+        <v>45931</v>
       </c>
       <c r="B86" s="20"/>
       <c r="C86" s="13"/>
@@ -4773,7 +4791,7 @@
     </row>
     <row r="87" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A87" s="40">
-        <v>45992</v>
+        <v>45962</v>
       </c>
       <c r="B87" s="20"/>
       <c r="C87" s="13"/>
@@ -4791,7 +4809,7 @@
     </row>
     <row r="88" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A88" s="40">
-        <v>46023</v>
+        <v>45992</v>
       </c>
       <c r="B88" s="20"/>
       <c r="C88" s="13"/>
@@ -4809,7 +4827,7 @@
     </row>
     <row r="89" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A89" s="40">
-        <v>46054</v>
+        <v>46023</v>
       </c>
       <c r="B89" s="20"/>
       <c r="C89" s="13"/>
@@ -4827,7 +4845,7 @@
     </row>
     <row r="90" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A90" s="40">
-        <v>46082</v>
+        <v>46054</v>
       </c>
       <c r="B90" s="20"/>
       <c r="C90" s="13"/>
@@ -4845,7 +4863,7 @@
     </row>
     <row r="91" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A91" s="40">
-        <v>46113</v>
+        <v>46082</v>
       </c>
       <c r="B91" s="20"/>
       <c r="C91" s="13"/>
@@ -4863,7 +4881,7 @@
     </row>
     <row r="92" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A92" s="40">
-        <v>46143</v>
+        <v>46113</v>
       </c>
       <c r="B92" s="20"/>
       <c r="C92" s="13"/>
@@ -4881,7 +4899,7 @@
     </row>
     <row r="93" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A93" s="40">
-        <v>46174</v>
+        <v>46143</v>
       </c>
       <c r="B93" s="20"/>
       <c r="C93" s="13"/>
@@ -4899,7 +4917,7 @@
     </row>
     <row r="94" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A94" s="40">
-        <v>46204</v>
+        <v>46174</v>
       </c>
       <c r="B94" s="20"/>
       <c r="C94" s="13"/>
@@ -4917,7 +4935,7 @@
     </row>
     <row r="95" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A95" s="40">
-        <v>46235</v>
+        <v>46204</v>
       </c>
       <c r="B95" s="20"/>
       <c r="C95" s="13"/>
@@ -4935,7 +4953,7 @@
     </row>
     <row r="96" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A96" s="40">
-        <v>46266</v>
+        <v>46235</v>
       </c>
       <c r="B96" s="20"/>
       <c r="C96" s="13"/>
@@ -4953,7 +4971,7 @@
     </row>
     <row r="97" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A97" s="40">
-        <v>46296</v>
+        <v>46266</v>
       </c>
       <c r="B97" s="20"/>
       <c r="C97" s="13"/>
@@ -4971,7 +4989,7 @@
     </row>
     <row r="98" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A98" s="40">
-        <v>46327</v>
+        <v>46296</v>
       </c>
       <c r="B98" s="20"/>
       <c r="C98" s="13"/>
@@ -4989,7 +5007,7 @@
     </row>
     <row r="99" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A99" s="40">
-        <v>46357</v>
+        <v>46327</v>
       </c>
       <c r="B99" s="20"/>
       <c r="C99" s="13"/>
@@ -5007,7 +5025,7 @@
     </row>
     <row r="100" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A100" s="40">
-        <v>46388</v>
+        <v>46357</v>
       </c>
       <c r="B100" s="20"/>
       <c r="C100" s="13"/>
@@ -5025,7 +5043,7 @@
     </row>
     <row r="101" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A101" s="40">
-        <v>46419</v>
+        <v>46388</v>
       </c>
       <c r="B101" s="20"/>
       <c r="C101" s="13"/>
@@ -5043,7 +5061,7 @@
     </row>
     <row r="102" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A102" s="40">
-        <v>46447</v>
+        <v>46419</v>
       </c>
       <c r="B102" s="20"/>
       <c r="C102" s="13"/>
@@ -5061,7 +5079,7 @@
     </row>
     <row r="103" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A103" s="40">
-        <v>46478</v>
+        <v>46447</v>
       </c>
       <c r="B103" s="20"/>
       <c r="C103" s="13"/>
@@ -5079,7 +5097,7 @@
     </row>
     <row r="104" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A104" s="40">
-        <v>46508</v>
+        <v>46478</v>
       </c>
       <c r="B104" s="20"/>
       <c r="C104" s="13"/>
@@ -5097,7 +5115,7 @@
     </row>
     <row r="105" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A105" s="40">
-        <v>46539</v>
+        <v>46508</v>
       </c>
       <c r="B105" s="20"/>
       <c r="C105" s="13"/>
@@ -5115,7 +5133,7 @@
     </row>
     <row r="106" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A106" s="40">
-        <v>46569</v>
+        <v>46539</v>
       </c>
       <c r="B106" s="20"/>
       <c r="C106" s="13"/>
@@ -5133,7 +5151,7 @@
     </row>
     <row r="107" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A107" s="40">
-        <v>46600</v>
+        <v>46569</v>
       </c>
       <c r="B107" s="20"/>
       <c r="C107" s="13"/>
@@ -5151,7 +5169,7 @@
     </row>
     <row r="108" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A108" s="40">
-        <v>46631</v>
+        <v>46600</v>
       </c>
       <c r="B108" s="20"/>
       <c r="C108" s="13"/>
@@ -5169,7 +5187,7 @@
     </row>
     <row r="109" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A109" s="40">
-        <v>46661</v>
+        <v>46631</v>
       </c>
       <c r="B109" s="20"/>
       <c r="C109" s="13"/>
@@ -5187,7 +5205,7 @@
     </row>
     <row r="110" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A110" s="40">
-        <v>46692</v>
+        <v>46661</v>
       </c>
       <c r="B110" s="20"/>
       <c r="C110" s="13"/>
@@ -5205,7 +5223,7 @@
     </row>
     <row r="111" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A111" s="40">
-        <v>46722</v>
+        <v>46692</v>
       </c>
       <c r="B111" s="20"/>
       <c r="C111" s="13"/>
@@ -5223,7 +5241,7 @@
     </row>
     <row r="112" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A112" s="40">
-        <v>46753</v>
+        <v>46722</v>
       </c>
       <c r="B112" s="20"/>
       <c r="C112" s="13"/>
@@ -5241,7 +5259,7 @@
     </row>
     <row r="113" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A113" s="40">
-        <v>46784</v>
+        <v>46753</v>
       </c>
       <c r="B113" s="20"/>
       <c r="C113" s="13"/>
@@ -5259,7 +5277,7 @@
     </row>
     <row r="114" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A114" s="40">
-        <v>46813</v>
+        <v>46784</v>
       </c>
       <c r="B114" s="20"/>
       <c r="C114" s="13"/>
@@ -5277,7 +5295,7 @@
     </row>
     <row r="115" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A115" s="40">
-        <v>46844</v>
+        <v>46813</v>
       </c>
       <c r="B115" s="20"/>
       <c r="C115" s="13"/>
@@ -5295,7 +5313,7 @@
     </row>
     <row r="116" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A116" s="40">
-        <v>46874</v>
+        <v>46844</v>
       </c>
       <c r="B116" s="20"/>
       <c r="C116" s="13"/>
@@ -5313,7 +5331,7 @@
     </row>
     <row r="117" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A117" s="40">
-        <v>46905</v>
+        <v>46874</v>
       </c>
       <c r="B117" s="20"/>
       <c r="C117" s="13"/>
@@ -5331,7 +5349,7 @@
     </row>
     <row r="118" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A118" s="40">
-        <v>46935</v>
+        <v>46905</v>
       </c>
       <c r="B118" s="20"/>
       <c r="C118" s="13"/>
@@ -5349,7 +5367,7 @@
     </row>
     <row r="119" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A119" s="40">
-        <v>46966</v>
+        <v>46935</v>
       </c>
       <c r="B119" s="20"/>
       <c r="C119" s="13"/>
@@ -5367,7 +5385,7 @@
     </row>
     <row r="120" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A120" s="40">
-        <v>46997</v>
+        <v>46966</v>
       </c>
       <c r="B120" s="20"/>
       <c r="C120" s="13"/>
@@ -5385,7 +5403,7 @@
     </row>
     <row r="121" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A121" s="40">
-        <v>47027</v>
+        <v>46997</v>
       </c>
       <c r="B121" s="20"/>
       <c r="C121" s="13"/>
@@ -5403,7 +5421,7 @@
     </row>
     <row r="122" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A122" s="40">
-        <v>47058</v>
+        <v>47027</v>
       </c>
       <c r="B122" s="20"/>
       <c r="C122" s="13"/>
@@ -5421,7 +5439,7 @@
     </row>
     <row r="123" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A123" s="40">
-        <v>47088</v>
+        <v>47058</v>
       </c>
       <c r="B123" s="20"/>
       <c r="C123" s="13"/>
@@ -5439,7 +5457,7 @@
     </row>
     <row r="124" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A124" s="40">
-        <v>47119</v>
+        <v>47088</v>
       </c>
       <c r="B124" s="20"/>
       <c r="C124" s="13"/>
@@ -5457,7 +5475,7 @@
     </row>
     <row r="125" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A125" s="40">
-        <v>47150</v>
+        <v>47119</v>
       </c>
       <c r="B125" s="20"/>
       <c r="C125" s="13"/>
@@ -5474,7 +5492,9 @@
       <c r="K125" s="20"/>
     </row>
     <row r="126" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A126" s="40"/>
+      <c r="A126" s="40">
+        <v>47150</v>
+      </c>
       <c r="B126" s="20"/>
       <c r="C126" s="13"/>
       <c r="D126" s="39"/>
@@ -5618,20 +5638,36 @@
       <c r="K134" s="20"/>
     </row>
     <row r="135" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A135" s="41"/>
-      <c r="B135" s="15"/>
-      <c r="C135" s="42"/>
-      <c r="D135" s="43"/>
+      <c r="A135" s="40"/>
+      <c r="B135" s="20"/>
+      <c r="C135" s="13"/>
+      <c r="D135" s="39"/>
       <c r="E135" s="9"/>
-      <c r="F135" s="15"/>
-      <c r="G135" s="42" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H135" s="43"/>
+      <c r="F135" s="20"/>
+      <c r="G135" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H135" s="39"/>
       <c r="I135" s="9"/>
-      <c r="J135" s="12"/>
-      <c r="K135" s="15"/>
+      <c r="J135" s="11"/>
+      <c r="K135" s="20"/>
+    </row>
+    <row r="136" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A136" s="41"/>
+      <c r="B136" s="15"/>
+      <c r="C136" s="42"/>
+      <c r="D136" s="43"/>
+      <c r="E136" s="9"/>
+      <c r="F136" s="15"/>
+      <c r="G136" s="42" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H136" s="43"/>
+      <c r="I136" s="9"/>
+      <c r="J136" s="12"/>
+      <c r="K136" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="11">
